--- a/src/test/resources/Study/Need Look.xlsx
+++ b/src/test/resources/Study/Need Look.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>细分</t>
   </si>
@@ -53,6 +53,12 @@
   <si>
     <t>Ubuntu中安装命令，请用sudo apt-get install 软件名；
 Centos 6.5 启动svnserve失败，请在执行语句前加sudo；</t>
+  </si>
+  <si>
+    <t>Linux下的mysql数据导入导出</t>
+  </si>
+  <si>
+    <t>http://www.2cto.com/database/201408/329527.html</t>
   </si>
   <si>
     <t>工具制作</t>
@@ -85,9 +91,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -137,6 +143,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -163,6 +177,74 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,83 +274,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,12 +295,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -307,18 +457,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -331,145 +469,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,30 +563,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,11 +582,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,32 +641,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,10 +672,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,133 +684,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1207,7 +1213,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="3"/>
@@ -1269,8 +1275,12 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:4">
@@ -1293,7 +1303,7 @@
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:4">
       <c r="A9" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1301,13 +1311,13 @@
     </row>
     <row r="10" s="2" customFormat="1" spans="1:4">
       <c r="A10" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" s="11"/>
     </row>
@@ -1349,7 +1359,7 @@
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:4">
       <c r="A17" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1357,13 +1367,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D18" s="11">
         <v>1</v>
@@ -1372,10 +1382,10 @@
     <row r="19" spans="1:4">
       <c r="A19" s="12"/>
       <c r="B19" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D19" s="14"/>
     </row>
